--- a/dati/phasesweepR.xlsx
+++ b/dati/phasesweepR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iside\Desktop\circuiti labview\prova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simonevaligi\root\macros\circuiti\graph_V\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FC687C-7C20-41EE-8B65-D14A93D1AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8201E162-81C4-4713-9683-E1722995368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17256" windowHeight="8880"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_610659" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,8 +569,4299 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lvtemporary_610659!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude - Plot 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lvtemporary_610659!$A$2:$A$573</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="572"/>
+                <c:pt idx="4">
+                  <c:v>400.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.53100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.52100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600.16200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800.197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800.19500000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800.19500000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1200.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1200.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1400.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000.13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2000.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3600.15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3600.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4400.16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4800.26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5000.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5000.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5200.16</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5400.22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5400.21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5400.21</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5600.26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5600.27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5600.27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5800.32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6200.23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6200.23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6200.22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6400.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7000.23</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7200.28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7200.28</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7400.33</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8600.27</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>12000.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>14600.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>14600.3</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>14600.2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>15000.4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>28600.3</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>28600.3</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>28600.3</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>29000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>29000.5</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>29000.5</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>31600.3</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>31600.3</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>31600.3</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>32000.5</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lvtemporary_610659!$B$2:$B$573</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="572"/>
+                <c:pt idx="4">
+                  <c:v>74.5715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.575599999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.578500000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.112099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.108800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.170299999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.986899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.994300000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.9422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.976300000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.494599999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.511200000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.526699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.505000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.521299999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.535699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.088299999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.093000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.069699999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.176099999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.151800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.156799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.692900000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.6629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.630600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.5184</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.510899999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.511400000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.731200000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.7361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.093800000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.131499999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.126100000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.876300000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.8489</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.852799999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.802600000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.782399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.787199999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.810700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.952100000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.945399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.909700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.211200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.2119</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.174700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.537600000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.1005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.089700000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.120899999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.0718</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.7194</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.713899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.702300000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.433499999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.4954</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.4343</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.271999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.224900000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.2867</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.154500000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.1417</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.188499999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.1058</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.1274</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.1252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.105399999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.0982</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.1366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.1509</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.114599999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.262700000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.181900000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.261900000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.2134</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.412599999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.3813</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.479699999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.5763200000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.6622400000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.6407900000000009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.9119799999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.8492800000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.7929600000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.7821999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.0820900000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.1306600000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.0926899999999993</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3446199999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.3215500000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.4751200000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.7111299999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.6709300000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.6222500000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.6827899999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.06229</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.1014499999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0687300000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.3738700000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.4604699999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.3619599999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.7886300000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.7640200000000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.8198699999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.2631899999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.1614500000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.1486799999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.1755699999999996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.6548400000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.6492499999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.5720200000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.0052599999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9835400000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.0901000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.4744100000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5129600000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.40137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.5583100000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.96939</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9163300000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.9028799999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4687399999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.38811</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.41568</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.86572199999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.93467800000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.895787</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.36757499999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.47839900000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.424176</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.400227</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-7.3473399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.6848599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-7.1798299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.51257200000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.41566999999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.44686199999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.935477</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.95955100000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.85705100000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.35565</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.3995899999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.4291199999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.4069199999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.75658</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.76125</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.8974899999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.2867899999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.2932100000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.18574</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.7542499999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.6945899999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.6539100000000002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.6331899999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-3.1341899999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-3.1350500000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-3.0286400000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-3.5093999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-3.5533600000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-3.3551299999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-3.8166099999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-3.81887</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-3.8646799999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-3.98062</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-4.2532800000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-4.1907800000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-4.3128000000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-4.5466699999999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-4.72173</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-4.6090400000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-5.0194900000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-5.0353700000000003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-5.0305900000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-5.2839799999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-5.3361799999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-5.4901499999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-5.2846700000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-5.76119</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-5.6560300000000003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-5.7206999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-6.1108500000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-6.1462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-6.1541100000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-6.34518</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-6.3166000000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-6.5140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-6.7437899999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-6.7057500000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-6.7050099999999997</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-7.1162700000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-7.0342099999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-7.1157300000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-7.45939</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-7.3780700000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-7.4085099999999997</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-7.73271</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-7.7168700000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-7.7706799999999996</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-7.7967000000000004</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-8.0502500000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-8.0643799999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-8.1604600000000005</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-8.4285099999999993</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-8.4008400000000005</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-8.4775500000000008</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-8.6609200000000008</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-8.7172199999999993</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-8.7990100000000009</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-9.0460799999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-9.0268499999999996</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-9.1582600000000003</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-9.0864200000000004</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-9.4011999999999993</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-9.4145199999999996</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-9.3704900000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-9.7222500000000007</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-9.6369000000000007</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-9.7717899999999993</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-9.9342000000000006</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-9.9033899999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-9.9491200000000006</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-9.8940199999999994</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-10.201599999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-10.3635</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-10.175599999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-10.6432</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-10.6107</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-10.547700000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-10.842700000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-10.743</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-10.8643</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-11.0166</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-11.0579</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-11.050800000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-11.244300000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-11.260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-11.2735</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-11.4552</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-11.6877</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-11.698399999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-11.6028</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-11.9945</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-11.8935</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-11.981400000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-12.071400000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-12.311299999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-12.146800000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-12.305</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-12.571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-12.597099999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-12.4994</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-12.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-12.8249</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-12.708600000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-12.956099999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-12.871499999999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-12.963100000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-12.876200000000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-13.357100000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-13.227600000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-13.287599999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-13.4537</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-13.488099999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-13.4931</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-13.826599999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-13.6816</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-13.6907</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-14.171900000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-14.153499999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-14.071300000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-13.9024</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-14.428000000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-14.200100000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-14.225899999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-14.4754</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-14.442299999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-14.482699999999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-14.8085</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-14.777699999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-14.8559</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-15.005699999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-14.916600000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-15.0344</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-14.924899999999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-15.3864</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-15.127800000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-15.111499999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-15.622199999999999</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-15.3604</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-15.513500000000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-15.6204</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-15.8279</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-15.7936</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-15.820499999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-16.076899999999998</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-16.014800000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-16.046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-16.1389</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-15.995699999999999</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-16.095600000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-16.400600000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-16.525500000000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-16.303999999999998</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-16.5107</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-16.688600000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-16.561399999999999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-16.6357</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-16.755500000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-16.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-16.965</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-17.084</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-17.085799999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-17.0838</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-17.4513</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-17.371300000000002</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-17.190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-17.198799999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-17.3477</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-17.401199999999999</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-17.499600000000001</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-17.5974</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-17.750599999999999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-17.8443</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-17.759599999999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-17.9453</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-17.7592</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-17.964500000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-18.015999999999998</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-17.9466</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-18.139900000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-18.3979</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-18.325500000000002</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-18.4907</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-18.736699999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-18.633099999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-18.695599999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-18.925999999999998</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-18.838899999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-18.6144</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-18.805700000000002</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-18.820799999999998</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-19.040800000000001</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-18.819500000000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-19.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-19.258299999999998</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-19.045500000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-19.5045</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-19.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-19.2288</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-19.417400000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-19.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-19.500699999999998</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-19.532399999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-19.769200000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-19.674499999999998</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-19.869299999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-20.051600000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-20.058399999999999</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-20.0976</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-20.118600000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-19.941800000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-20.0809</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-19.955400000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-20.407699999999998</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-20.3065</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-20.128</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-20.467600000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-20.652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-20.4254</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-20.8462</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-20.491399999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-20.481400000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-20.882400000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-20.6966</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-20.691299999999998</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-20.76</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-20.953399999999998</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-21.184100000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-21.0854</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-21.089200000000002</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-21.303899999999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-21.180800000000001</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-21.4237</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-21.294699999999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-21.5871</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-21.605</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-21.5244</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-21.598299999999998</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-21.697800000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-21.542899999999999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-21.774699999999999</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-21.626100000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-21.834800000000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-21.812100000000001</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-21.930800000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-22.027100000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-22.109500000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-22.2685</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-22.192499999999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-22.184000000000001</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-22.254100000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-22.1401</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-22.5166</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-22.273599999999998</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-22.605899999999998</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-22.4389</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-22.7272</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-22.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-22.5185</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-22.574200000000001</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-22.532299999999999</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-22.858599999999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-22.976800000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-22.797899999999998</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-23.2653</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-23.244700000000002</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-22.923400000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-23.261199999999999</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-23.258099999999999</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-23.210100000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-22.956099999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-23.269600000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-23.5626</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-23.549499999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-23.66</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-23.7121</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-23.631799999999998</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-23.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-23.486999999999998</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-23.533100000000001</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-23.8215</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-23.992899999999999</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-23.788399999999999</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-23.709</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-23.772600000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-23.758900000000001</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-24.142299999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-24.027899999999999</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>-24.330500000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-23.883900000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-24.136800000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-24.047899999999998</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-24.287700000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-24.4237</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-24.160799999999998</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-24.481200000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-24.163399999999999</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-24.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-24.4617</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-24.5245</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-24.506499999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-24.741399999999999</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-24.582799999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-25.0746</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>-25.0319</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-24.743200000000002</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>-25.042100000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>-24.817399999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-25.011800000000001</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-24.777100000000001</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>-24.9558</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-24.957899999999999</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-24.956900000000001</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>-25.139600000000002</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-25.422499999999999</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-25.0261</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>-25.0654</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-25.6084</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-25.549099999999999</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-25.273199999999999</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-25.508600000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-25.3066</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-25.270399999999999</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-25.55</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-25.639700000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-25.546500000000002</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-25.5977</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-25.949300000000001</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-25.9435</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-25.816800000000001</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>-25.857900000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-25.770099999999999</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-25.719000000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-25.735399999999998</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-26.139600000000002</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-25.796800000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>-26.090900000000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-25.929300000000001</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-25.912099999999999</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-26.2014</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>-26.2986</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-26.411200000000001</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-26.488199999999999</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-26.380800000000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-26.430399999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-26.6252</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-26.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-26.392600000000002</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-26.477499999999999</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-26.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-26.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-26.689900000000002</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-26.883400000000002</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-26.665099999999999</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-26.8245</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-26.956</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>-26.742699999999999</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>-26.926500000000001</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>-27.1586</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-26.9284</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>-26.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>-26.913900000000002</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>-27.178599999999999</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-27.357399999999998</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-27.3673</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-26.962299999999999</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>-27.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-27.442</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-27.114799999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-27.301500000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>-27.168299999999999</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-27.416</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>-27.4283</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-27.517299999999999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-27.3705</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-27.555199999999999</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>-27.814900000000002</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-27.449400000000001</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-27.733699999999999</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-27.912500000000001</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-27.791599999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-27.592500000000001</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-27.500599999999999</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-27.760100000000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-27.473800000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-27.760400000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-27.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-28.176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-27.9087</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-27.937100000000001</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-28.0367</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-28.2011</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-28.002800000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-28.331800000000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-27.895299999999999</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-28.053100000000001</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-28.097200000000001</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-27.969799999999999</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-28.148900000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-28.394400000000001</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-28.072399999999998</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-28.480499999999999</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-28.2852</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-28.615500000000001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-28.264099999999999</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-28.193200000000001</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-28.5091</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-28.312200000000001</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-28.414400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00FD-4DD1-AA5C-C26B92A16D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1367579392"/>
+        <c:axId val="1367583712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1367579392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1367583712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1367583712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1367579392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537AF693-BDE1-9754-9B14-C22FF24A188A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,18 +5176,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,39 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>279.714</v>
-      </c>
-      <c r="B2">
-        <v>25.3931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>280.12</v>
-      </c>
-      <c r="B3">
-        <v>25.090699999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>279.95499999999998</v>
-      </c>
-      <c r="B4">
-        <v>25.193999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>280.07</v>
-      </c>
-      <c r="B5">
-        <v>25.134499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>400.52699999999999</v>
       </c>
@@ -944,7 +5205,7 @@
         <v>74.5715</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400.53100000000001</v>
       </c>
@@ -952,7 +5213,7 @@
         <v>74.575599999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>400.52100000000002</v>
       </c>
@@ -960,7 +5221,7 @@
         <v>74.578500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600.16800000000001</v>
       </c>
@@ -968,7 +5229,7 @@
         <v>68.112099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>600.17200000000003</v>
       </c>
@@ -976,7 +5237,7 @@
         <v>68.108800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>600.16200000000003</v>
       </c>
@@ -984,7 +5245,7 @@
         <v>68.170299999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>800.197</v>
       </c>
@@ -992,7 +5253,7 @@
         <v>61.986899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>800.19899999999996</v>
       </c>
@@ -1000,7 +5261,7 @@
         <v>61.994300000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>800.19500000000005</v>
       </c>
@@ -1008,7 +5269,7 @@
         <v>61.9422</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>800.19500000000005</v>
       </c>
@@ -1016,7 +5277,7 @@
         <v>61.976300000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1000.24</v>
       </c>
@@ -1024,7 +5285,7 @@
         <v>56.494599999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1000.24</v>
       </c>
@@ -1032,7 +5293,7 @@
         <v>56.511200000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1000.25</v>
       </c>
@@ -1040,7 +5301,7 @@
         <v>56.526699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1200.31</v>
       </c>
@@ -1048,7 +5309,7 @@
         <v>51.505000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1200.3</v>
       </c>
@@ -1056,7 +5317,7 @@
         <v>51.521299999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1200.3</v>
       </c>
@@ -1064,7 +5325,7 @@
         <v>51.535699999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1400.16</v>
       </c>
@@ -1072,7 +5333,7 @@
         <v>47.088299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1400.16</v>
       </c>
@@ -1080,7 +5341,7 @@
         <v>47.093000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1400.16</v>
       </c>
@@ -1088,7 +5349,7 @@
         <v>47.069699999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1400.17</v>
       </c>
@@ -1096,7 +5357,7 @@
         <v>47.081000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1600.21</v>
       </c>
@@ -1104,7 +5365,7 @@
         <v>43.176099999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1600.21</v>
       </c>
@@ -1112,7 +5373,7 @@
         <v>43.151800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1600.21</v>
       </c>
@@ -1120,7 +5381,7 @@
         <v>43.156799999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1800.26</v>
       </c>
@@ -1128,7 +5389,7 @@
         <v>39.692900000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1800.26</v>
       </c>
@@ -1136,7 +5397,7 @@
         <v>39.6629</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1800.26</v>
       </c>
@@ -1144,7 +5405,7 @@
         <v>39.630600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2000.12</v>
       </c>
@@ -1152,7 +5413,7 @@
         <v>36.5184</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2000.13</v>
       </c>
@@ -1160,7 +5421,7 @@
         <v>36.510899999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2000.13</v>
       </c>
@@ -1168,7 +5429,7 @@
         <v>36.511400000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2200.17</v>
       </c>
@@ -1176,7 +5437,7 @@
         <v>33.731200000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2200.17</v>
       </c>
@@ -1184,7 +5445,7 @@
         <v>33.7361</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2200.17</v>
       </c>
@@ -1192,7 +5453,7 @@
         <v>33.678100000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2200.17</v>
       </c>
@@ -1200,7 +5461,7 @@
         <v>33.712000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2400.2199999999998</v>
       </c>
@@ -1208,7 +5469,7 @@
         <v>31.093800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2400.2199999999998</v>
       </c>
@@ -1216,7 +5477,7 @@
         <v>31.131499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2400.2199999999998</v>
       </c>
@@ -1224,7 +5485,7 @@
         <v>31.126100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2600.27</v>
       </c>
@@ -1232,7 +5493,7 @@
         <v>28.876300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2600.27</v>
       </c>
@@ -1240,7 +5501,7 @@
         <v>28.8489</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2600.27</v>
       </c>
@@ -1248,7 +5509,7 @@
         <v>28.852799999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2800.13</v>
       </c>
@@ -1256,7 +5517,7 @@
         <v>26.802600000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2800.13</v>
       </c>
@@ -1264,7 +5525,7 @@
         <v>26.782399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2800.13</v>
       </c>
@@ -1272,7 +5533,7 @@
         <v>26.787199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2800.13</v>
       </c>
@@ -1280,7 +5541,7 @@
         <v>26.810700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3000.18</v>
       </c>
@@ -1288,7 +5549,7 @@
         <v>24.952100000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3000.18</v>
       </c>
@@ -1296,7 +5557,7 @@
         <v>24.945399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3000.18</v>
       </c>
@@ -1304,7 +5565,7 @@
         <v>24.909700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3200.23</v>
       </c>
@@ -1312,7 +5573,7 @@
         <v>23.211200000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3200.23</v>
       </c>
@@ -1320,7 +5581,7 @@
         <v>23.2119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3200.23</v>
       </c>
@@ -1328,7 +5589,7 @@
         <v>23.174700000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3400.28</v>
       </c>
@@ -1336,7 +5597,7 @@
         <v>21.588999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3400.28</v>
       </c>
@@ -1344,7 +5605,7 @@
         <v>21.537600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3400.28</v>
       </c>
@@ -1352,7 +5613,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3600.14</v>
       </c>
@@ -1360,7 +5621,7 @@
         <v>20.1005</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3600.14</v>
       </c>
@@ -1368,7 +5629,7 @@
         <v>20.089700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3600.15</v>
       </c>
@@ -1376,7 +5637,7 @@
         <v>20.120899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3600.15</v>
       </c>
@@ -1384,7 +5645,7 @@
         <v>20.0718</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3800.19</v>
       </c>
@@ -1392,7 +5653,7 @@
         <v>18.7194</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3800.19</v>
       </c>
@@ -1400,7 +5661,7 @@
         <v>18.713899999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3800.19</v>
       </c>
@@ -1408,7 +5669,7 @@
         <v>18.702300000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>4000.24</v>
       </c>
@@ -1416,7 +5677,7 @@
         <v>17.433499999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>4000.24</v>
       </c>
@@ -1424,7 +5685,7 @@
         <v>17.4954</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>4000.24</v>
       </c>
@@ -1432,7 +5693,7 @@
         <v>17.4343</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4200.29</v>
       </c>
@@ -1440,7 +5701,7 @@
         <v>16.271999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>4200.29</v>
       </c>
@@ -1448,7 +5709,7 @@
         <v>16.224900000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>4200.29</v>
       </c>
@@ -1456,7 +5717,7 @@
         <v>16.2867</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>4400.1499999999996</v>
       </c>
@@ -1464,7 +5725,7 @@
         <v>15.154500000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>4400.1499999999996</v>
       </c>
@@ -1472,7 +5733,7 @@
         <v>15.1417</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>4400.1499999999996</v>
       </c>
@@ -1480,7 +5741,7 @@
         <v>15.188499999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>4400.16</v>
       </c>
@@ -1488,7 +5749,7 @@
         <v>15.154400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>4600.2</v>
       </c>
@@ -1496,7 +5757,7 @@
         <v>14.1058</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>4600.2</v>
       </c>
@@ -1504,7 +5765,7 @@
         <v>14.1274</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4600.2</v>
       </c>
@@ -1512,7 +5773,7 @@
         <v>14.1252</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4800.26</v>
       </c>
@@ -1520,7 +5781,7 @@
         <v>13.105399999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>4800.25</v>
       </c>
@@ -1528,7 +5789,7 @@
         <v>13.0982</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>4800.25</v>
       </c>
@@ -1536,7 +5797,7 @@
         <v>13.1366</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>5000.3</v>
       </c>
@@ -1544,7 +5805,7 @@
         <v>12.1509</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>5000.3100000000004</v>
       </c>
@@ -1552,7 +5813,7 @@
         <v>12.114599999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>5000.3100000000004</v>
       </c>
@@ -1560,7 +5821,7 @@
         <v>12.262700000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>5000.3</v>
       </c>
@@ -1568,7 +5829,7 @@
         <v>12.181900000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>5200.17</v>
       </c>
@@ -1576,7 +5837,7 @@
         <v>11.261900000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>5200.17</v>
       </c>
@@ -1584,7 +5845,7 @@
         <v>11.226000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>5200.16</v>
       </c>
@@ -1592,7 +5853,7 @@
         <v>11.2134</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>5400.22</v>
       </c>
@@ -1600,7 +5861,7 @@
         <v>10.412599999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>5400.21</v>
       </c>
@@ -1608,7 +5869,7 @@
         <v>10.3813</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>5400.21</v>
       </c>
@@ -1616,7 +5877,7 @@
         <v>10.479699999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>5600.26</v>
       </c>
@@ -1624,7 +5885,7 @@
         <v>9.5763200000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5600.27</v>
       </c>
@@ -1632,7 +5893,7 @@
         <v>9.6622400000000006</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>5600.27</v>
       </c>
@@ -1640,7 +5901,7 @@
         <v>9.6407900000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>5800.31</v>
       </c>
@@ -1648,7 +5909,7 @@
         <v>8.9119799999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5800.32</v>
       </c>
@@ -1656,7 +5917,7 @@
         <v>8.8492800000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>5800.31</v>
       </c>
@@ -1664,7 +5925,7 @@
         <v>8.7929600000000008</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>5800.31</v>
       </c>
@@ -1672,7 +5933,7 @@
         <v>8.7821999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>6000.18</v>
       </c>
@@ -1680,7 +5941,7 @@
         <v>8.0820900000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>6000.18</v>
       </c>
@@ -1688,7 +5949,7 @@
         <v>8.1306600000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>6000.18</v>
       </c>
@@ -1696,7 +5957,7 @@
         <v>8.0926899999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6200.23</v>
       </c>
@@ -1704,7 +5965,7 @@
         <v>7.3446199999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6200.23</v>
       </c>
@@ -1712,7 +5973,7 @@
         <v>7.3215500000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6200.22</v>
       </c>
@@ -1720,7 +5981,7 @@
         <v>7.4751200000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6400.28</v>
       </c>
@@ -1728,7 +5989,7 @@
         <v>6.7111299999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6400.28</v>
       </c>
@@ -1736,7 +5997,7 @@
         <v>6.6709300000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>6400.27</v>
       </c>
@@ -1744,7 +6005,7 @@
         <v>6.6222500000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6400.28</v>
       </c>
@@ -1752,7 +6013,7 @@
         <v>6.6827899999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>6600.32</v>
       </c>
@@ -1760,7 +6021,7 @@
         <v>6.06229</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>6600.32</v>
       </c>
@@ -1768,7 +6029,7 @@
         <v>6.1014499999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>6600.32</v>
       </c>
@@ -1776,7 +6037,7 @@
         <v>6.0687300000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>6800.19</v>
       </c>
@@ -1784,7 +6045,7 @@
         <v>5.3738700000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>6800.19</v>
       </c>
@@ -1792,7 +6053,7 @@
         <v>5.4604699999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>6800.19</v>
       </c>
@@ -1800,7 +6061,7 @@
         <v>5.3619599999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>7000.23</v>
       </c>
@@ -1808,7 +6069,7 @@
         <v>4.7886300000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>7000.24</v>
       </c>
@@ -1816,7 +6077,7 @@
         <v>4.7640200000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>7000.24</v>
       </c>
@@ -1824,7 +6085,7 @@
         <v>4.8198699999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>7200.28</v>
       </c>
@@ -1832,7 +6093,7 @@
         <v>4.2631899999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>7200.29</v>
       </c>
@@ -1840,7 +6101,7 @@
         <v>4.1614500000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>7200.28</v>
       </c>
@@ -1848,7 +6109,7 @@
         <v>4.1486799999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>7200.29</v>
       </c>
@@ -1856,7 +6117,7 @@
         <v>4.1755699999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>7400.34</v>
       </c>
@@ -1864,7 +6125,7 @@
         <v>3.6548400000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>7400.33</v>
       </c>
@@ -1872,7 +6133,7 @@
         <v>3.6492499999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7400.34</v>
       </c>
@@ -1880,7 +6141,7 @@
         <v>3.5720200000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>7600.2</v>
       </c>
@@ -1888,7 +6149,7 @@
         <v>3.0052599999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>7600.2</v>
       </c>
@@ -1896,7 +6157,7 @@
         <v>2.9835400000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>7600.2</v>
       </c>
@@ -1904,7 +6165,7 @@
         <v>3.0901000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>7800.25</v>
       </c>
@@ -1912,7 +6173,7 @@
         <v>2.4744100000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>7800.25</v>
       </c>
@@ -1920,7 +6181,7 @@
         <v>2.5129600000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>7800.25</v>
       </c>
@@ -1928,7 +6189,7 @@
         <v>2.40137</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>7800.25</v>
       </c>
@@ -1936,7 +6197,7 @@
         <v>2.5583100000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>8000.3</v>
       </c>
@@ -1944,7 +6205,7 @@
         <v>1.96939</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>8000.3</v>
       </c>
@@ -1952,7 +6213,7 @@
         <v>1.9163300000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8000.3</v>
       </c>
@@ -1960,7 +6221,7 @@
         <v>1.9028799999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>8200.16</v>
       </c>
@@ -1968,7 +6229,7 @@
         <v>1.4687399999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>8200.16</v>
       </c>
@@ -1976,7 +6237,7 @@
         <v>1.38811</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>8200.16</v>
       </c>
@@ -1984,7 +6245,7 @@
         <v>1.41568</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8400.2099999999991</v>
       </c>
@@ -1992,7 +6253,7 @@
         <v>0.86572199999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>8400.2099999999991</v>
       </c>
@@ -2000,7 +6261,7 @@
         <v>0.93467800000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>8400.2099999999991</v>
       </c>
@@ -2008,7 +6269,7 @@
         <v>0.895787</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>8600.26</v>
       </c>
@@ -2016,7 +6277,7 @@
         <v>0.36757499999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>8600.26</v>
       </c>
@@ -2024,7 +6285,7 @@
         <v>0.47839900000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>8600.27</v>
       </c>
@@ -2032,7 +6293,7 @@
         <v>0.424176</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>8600.26</v>
       </c>
@@ -2040,7 +6301,7 @@
         <v>0.400227</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>8800.31</v>
       </c>
@@ -2048,7 +6309,7 @@
         <v>-7.3473399999999994E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>8800.31</v>
       </c>
@@ -2056,7 +6317,7 @@
         <v>4.6848599999999999E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>8800.31</v>
       </c>
@@ -2064,7 +6325,7 @@
         <v>-7.1798299999999995E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>9000.17</v>
       </c>
@@ -2072,7 +6333,7 @@
         <v>-0.51257200000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>9000.17</v>
       </c>
@@ -2080,7 +6341,7 @@
         <v>-0.41566999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>9000.17</v>
       </c>
@@ -2088,7 +6349,7 @@
         <v>-0.44686199999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>9200.2199999999993</v>
       </c>
@@ -2096,7 +6357,7 @@
         <v>-0.935477</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>9200.2199999999993</v>
       </c>
@@ -2104,7 +6365,7 @@
         <v>-0.95955100000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>9200.2199999999993</v>
       </c>
@@ -2112,7 +6373,7 @@
         <v>-0.85705100000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>9400.27</v>
       </c>
@@ -2120,7 +6381,7 @@
         <v>-1.35565</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>9400.27</v>
       </c>
@@ -2128,7 +6389,7 @@
         <v>-1.3995899999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>9400.27</v>
       </c>
@@ -2136,7 +6397,7 @@
         <v>-1.4291199999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>9400.27</v>
       </c>
@@ -2144,7 +6405,7 @@
         <v>-1.4069199999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>9600.32</v>
       </c>
@@ -2152,7 +6413,7 @@
         <v>-1.75658</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>9600.32</v>
       </c>
@@ -2160,7 +6421,7 @@
         <v>-1.76125</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>9600.32</v>
       </c>
@@ -2168,7 +6429,7 @@
         <v>-1.8974899999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>9800.18</v>
       </c>
@@ -2176,7 +6437,7 @@
         <v>-2.2867899999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>9800.18</v>
       </c>
@@ -2184,7 +6445,7 @@
         <v>-2.2932100000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>9800.18</v>
       </c>
@@ -2192,7 +6453,7 @@
         <v>-2.18574</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>10000.200000000001</v>
       </c>
@@ -2200,7 +6461,7 @@
         <v>-2.7542499999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>10000.200000000001</v>
       </c>
@@ -2208,7 +6469,7 @@
         <v>-2.6945899999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>10000.200000000001</v>
       </c>
@@ -2216,7 +6477,7 @@
         <v>-2.6539100000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>10000.200000000001</v>
       </c>
@@ -2224,7 +6485,7 @@
         <v>-2.6331899999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>10200.299999999999</v>
       </c>
@@ -2232,7 +6493,7 @@
         <v>-3.1341899999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>10200.299999999999</v>
       </c>
@@ -2240,7 +6501,7 @@
         <v>-3.1350500000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>10200.299999999999</v>
       </c>
@@ -2248,7 +6509,7 @@
         <v>-3.0286400000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>10400.299999999999</v>
       </c>
@@ -2256,7 +6517,7 @@
         <v>-3.5093999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>10400.299999999999</v>
       </c>
@@ -2264,7 +6525,7 @@
         <v>-3.5533600000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>10400.299999999999</v>
       </c>
@@ -2272,7 +6533,7 @@
         <v>-3.3551299999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>10600.2</v>
       </c>
@@ -2280,7 +6541,7 @@
         <v>-3.8166099999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>10600.2</v>
       </c>
@@ -2288,7 +6549,7 @@
         <v>-3.81887</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>10600.2</v>
       </c>
@@ -2296,7 +6557,7 @@
         <v>-3.8646799999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>10600.2</v>
       </c>
@@ -2304,7 +6565,7 @@
         <v>-3.98062</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>10800.2</v>
       </c>
@@ -2312,7 +6573,7 @@
         <v>-4.2532800000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>10800.2</v>
       </c>
@@ -2320,7 +6581,7 @@
         <v>-4.1907800000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>10800.2</v>
       </c>
@@ -2328,7 +6589,7 @@
         <v>-4.3128000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>11000.3</v>
       </c>
@@ -2336,7 +6597,7 @@
         <v>-4.5466699999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>11000.3</v>
       </c>
@@ -2344,7 +6605,7 @@
         <v>-4.72173</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>11000.3</v>
       </c>
@@ -2352,7 +6613,7 @@
         <v>-4.6090400000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>11200.3</v>
       </c>
@@ -2360,7 +6621,7 @@
         <v>-5.0194900000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>11200.3</v>
       </c>
@@ -2368,7 +6629,7 @@
         <v>-5.0353700000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>11200.3</v>
       </c>
@@ -2376,7 +6637,7 @@
         <v>-5.0305900000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>11400.2</v>
       </c>
@@ -2384,7 +6645,7 @@
         <v>-5.2839799999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>11400.2</v>
       </c>
@@ -2392,7 +6653,7 @@
         <v>-5.3361799999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>11400.2</v>
       </c>
@@ -2400,7 +6661,7 @@
         <v>-5.4901499999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>11400.2</v>
       </c>
@@ -2408,7 +6669,7 @@
         <v>-5.2846700000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>11600.3</v>
       </c>
@@ -2416,7 +6677,7 @@
         <v>-5.76119</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>11600.3</v>
       </c>
@@ -2424,7 +6685,7 @@
         <v>-5.6560300000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>11600.3</v>
       </c>
@@ -2432,7 +6693,7 @@
         <v>-5.7206999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>11800.3</v>
       </c>
@@ -2440,7 +6701,7 @@
         <v>-6.1108500000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>11800.3</v>
       </c>
@@ -2448,7 +6709,7 @@
         <v>-6.1462000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>11800.3</v>
       </c>
@@ -2456,7 +6717,7 @@
         <v>-6.1541100000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>12000.3</v>
       </c>
@@ -2464,7 +6725,7 @@
         <v>-6.34518</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>12000.4</v>
       </c>
@@ -2472,7 +6733,7 @@
         <v>-6.3166000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>12000.4</v>
       </c>
@@ -2480,15 +6741,7 @@
         <v>-6.5140000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>12009.1</v>
-      </c>
-      <c r="B199">
-        <v>-14.1265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>12200.2</v>
       </c>
@@ -2496,7 +6749,7 @@
         <v>-6.7437899999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>12200.2</v>
       </c>
@@ -2504,7 +6757,7 @@
         <v>-6.7057500000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>12200.2</v>
       </c>
@@ -2512,7 +6765,7 @@
         <v>-6.7050099999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>12400.3</v>
       </c>
@@ -2520,7 +6773,7 @@
         <v>-7.1162700000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>12400.3</v>
       </c>
@@ -2528,7 +6781,7 @@
         <v>-7.0342099999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>12400.3</v>
       </c>
@@ -2536,7 +6789,7 @@
         <v>-7.1157300000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>12600.3</v>
       </c>
@@ -2544,7 +6797,7 @@
         <v>-7.45939</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>12600.3</v>
       </c>
@@ -2552,7 +6805,7 @@
         <v>-7.3780700000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>12600.3</v>
       </c>
@@ -2560,7 +6813,7 @@
         <v>-7.4085099999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>12800.4</v>
       </c>
@@ -2568,7 +6821,7 @@
         <v>-7.73271</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>12800.4</v>
       </c>
@@ -2576,7 +6829,7 @@
         <v>-7.7168700000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>12800.4</v>
       </c>
@@ -2584,7 +6837,7 @@
         <v>-7.7706799999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>12800.4</v>
       </c>
@@ -2592,7 +6845,7 @@
         <v>-7.7967000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>13000.2</v>
       </c>
@@ -2600,7 +6853,7 @@
         <v>-8.0502500000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>13000.2</v>
       </c>
@@ -2608,7 +6861,7 @@
         <v>-8.0643799999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>13000.2</v>
       </c>
@@ -2616,7 +6869,7 @@
         <v>-8.1604600000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>13200.3</v>
       </c>
@@ -2624,7 +6877,7 @@
         <v>-8.4285099999999993</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>13200.3</v>
       </c>
@@ -2632,7 +6885,7 @@
         <v>-8.4008400000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>13200.3</v>
       </c>
@@ -2640,7 +6893,7 @@
         <v>-8.4775500000000008</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>13400.3</v>
       </c>
@@ -2648,7 +6901,7 @@
         <v>-8.6609200000000008</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>13400.3</v>
       </c>
@@ -2656,7 +6909,7 @@
         <v>-8.7172199999999993</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>13400.3</v>
       </c>
@@ -2664,7 +6917,7 @@
         <v>-8.7990100000000009</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>13600.4</v>
       </c>
@@ -2672,7 +6925,7 @@
         <v>-9.0460799999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>13600.4</v>
       </c>
@@ -2680,7 +6933,7 @@
         <v>-9.0268499999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>13600.4</v>
       </c>
@@ -2688,7 +6941,7 @@
         <v>-9.1582600000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>13600.4</v>
       </c>
@@ -2696,7 +6949,7 @@
         <v>-9.0864200000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>13800.2</v>
       </c>
@@ -2704,7 +6957,7 @@
         <v>-9.4011999999999993</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>13800.2</v>
       </c>
@@ -2712,7 +6965,7 @@
         <v>-9.4145199999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>13800.2</v>
       </c>
@@ -2720,7 +6973,7 @@
         <v>-9.3704900000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>14000.3</v>
       </c>
@@ -2728,7 +6981,7 @@
         <v>-9.7222500000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>14000.3</v>
       </c>
@@ -2736,7 +6989,7 @@
         <v>-9.6369000000000007</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>14000.3</v>
       </c>
@@ -2744,7 +6997,7 @@
         <v>-9.7717899999999993</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>14200.3</v>
       </c>
@@ -2752,7 +7005,7 @@
         <v>-9.9342000000000006</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>14200.3</v>
       </c>
@@ -2760,7 +7013,7 @@
         <v>-9.9033899999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>14200.3</v>
       </c>
@@ -2768,7 +7021,7 @@
         <v>-9.9491200000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>14200.3</v>
       </c>
@@ -2776,7 +7029,7 @@
         <v>-9.8940199999999994</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>14400.2</v>
       </c>
@@ -2784,7 +7037,7 @@
         <v>-10.201599999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>14400.2</v>
       </c>
@@ -2792,7 +7045,7 @@
         <v>-10.3635</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>14400.2</v>
       </c>
@@ -2800,7 +7053,7 @@
         <v>-10.175599999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>14600.3</v>
       </c>
@@ -2808,7 +7061,7 @@
         <v>-10.6432</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>14600.3</v>
       </c>
@@ -2816,7 +7069,7 @@
         <v>-10.6107</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>14600.2</v>
       </c>
@@ -2824,7 +7077,7 @@
         <v>-10.547700000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>14800.3</v>
       </c>
@@ -2832,7 +7085,7 @@
         <v>-10.842700000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>14800.3</v>
       </c>
@@ -2840,7 +7093,7 @@
         <v>-10.743</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>14800.3</v>
       </c>
@@ -2848,7 +7101,7 @@
         <v>-10.8643</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>15000.4</v>
       </c>
@@ -2856,7 +7109,7 @@
         <v>-11.0166</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>15000.3</v>
       </c>
@@ -2864,7 +7117,7 @@
         <v>-11.0579</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>15000.3</v>
       </c>
@@ -2872,7 +7125,7 @@
         <v>-11.050800000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>15000.3</v>
       </c>
@@ -2880,7 +7133,7 @@
         <v>-11.244300000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>15200.2</v>
       </c>
@@ -2888,7 +7141,7 @@
         <v>-11.260999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>15200.2</v>
       </c>
@@ -2896,7 +7149,7 @@
         <v>-11.2735</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>15200.2</v>
       </c>
@@ -2904,7 +7157,7 @@
         <v>-11.4552</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>15400.3</v>
       </c>
@@ -2912,7 +7165,7 @@
         <v>-11.6877</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>15400.3</v>
       </c>
@@ -2920,7 +7173,7 @@
         <v>-11.698399999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>15400.3</v>
       </c>
@@ -2928,7 +7181,7 @@
         <v>-11.6028</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>15600.3</v>
       </c>
@@ -2936,7 +7189,7 @@
         <v>-11.9945</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>15600.3</v>
       </c>
@@ -2944,7 +7197,7 @@
         <v>-11.8935</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>15600.3</v>
       </c>
@@ -2952,7 +7205,7 @@
         <v>-11.981400000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>15800.4</v>
       </c>
@@ -2960,7 +7213,7 @@
         <v>-12.071400000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>15800.4</v>
       </c>
@@ -2968,7 +7221,7 @@
         <v>-12.311299999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>15800.4</v>
       </c>
@@ -2976,7 +7229,7 @@
         <v>-12.146800000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>15800.4</v>
       </c>
@@ -2984,7 +7237,7 @@
         <v>-12.305</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>16000.2</v>
       </c>
@@ -2992,7 +7245,7 @@
         <v>-12.571400000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>16000.2</v>
       </c>
@@ -3000,7 +7253,7 @@
         <v>-12.597099999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>16000.2</v>
       </c>
@@ -3008,7 +7261,7 @@
         <v>-12.4994</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>16200.3</v>
       </c>
@@ -3016,7 +7269,7 @@
         <v>-12.574999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>16200.3</v>
       </c>
@@ -3024,7 +7277,7 @@
         <v>-12.8249</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>16200.3</v>
       </c>
@@ -3032,7 +7285,7 @@
         <v>-12.708600000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>16400.3</v>
       </c>
@@ -3040,7 +7293,7 @@
         <v>-12.956099999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>16400.3</v>
       </c>
@@ -3048,7 +7301,7 @@
         <v>-12.871499999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>16400.3</v>
       </c>
@@ -3056,7 +7309,7 @@
         <v>-12.963100000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>16400.3</v>
       </c>
@@ -3064,7 +7317,7 @@
         <v>-12.876200000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>16600.400000000001</v>
       </c>
@@ -3072,7 +7325,7 @@
         <v>-13.357100000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>16600.400000000001</v>
       </c>
@@ -3080,7 +7333,7 @@
         <v>-13.227600000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>16600.400000000001</v>
       </c>
@@ -3088,7 +7341,7 @@
         <v>-13.287599999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>16800.2</v>
       </c>
@@ -3096,7 +7349,7 @@
         <v>-13.4537</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>16800.2</v>
       </c>
@@ -3104,7 +7357,7 @@
         <v>-13.488099999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>16800.2</v>
       </c>
@@ -3112,7 +7365,7 @@
         <v>-13.4931</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>17000.3</v>
       </c>
@@ -3120,7 +7373,7 @@
         <v>-13.826599999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>17000.3</v>
       </c>
@@ -3128,7 +7381,7 @@
         <v>-13.6816</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>17000.3</v>
       </c>
@@ -3136,7 +7389,7 @@
         <v>-13.6907</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>17200.3</v>
       </c>
@@ -3144,7 +7397,7 @@
         <v>-14.171900000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>17200.3</v>
       </c>
@@ -3152,7 +7405,7 @@
         <v>-14.153499999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>17200.3</v>
       </c>
@@ -3160,7 +7413,7 @@
         <v>-14.071300000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>17200.3</v>
       </c>
@@ -3168,7 +7421,7 @@
         <v>-13.9024</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>17400.400000000001</v>
       </c>
@@ -3176,7 +7429,7 @@
         <v>-14.428000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>17400.400000000001</v>
       </c>
@@ -3184,7 +7437,7 @@
         <v>-14.200100000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>17400.400000000001</v>
       </c>
@@ -3192,7 +7445,7 @@
         <v>-14.225899999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>17600.2</v>
       </c>
@@ -3200,7 +7453,7 @@
         <v>-14.4754</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>17600.2</v>
       </c>
@@ -3208,7 +7461,7 @@
         <v>-14.442299999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>17600.2</v>
       </c>
@@ -3216,7 +7469,7 @@
         <v>-14.482699999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>17800.3</v>
       </c>
@@ -3224,7 +7477,7 @@
         <v>-14.8085</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>17800.3</v>
       </c>
@@ -3232,7 +7485,7 @@
         <v>-14.777699999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>17800.3</v>
       </c>
@@ -3240,7 +7493,7 @@
         <v>-14.8559</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>18000.3</v>
       </c>
@@ -3248,7 +7501,7 @@
         <v>-15.005699999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>18000.3</v>
       </c>
@@ -3256,7 +7509,7 @@
         <v>-14.916600000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>18000.3</v>
       </c>
@@ -3264,7 +7517,7 @@
         <v>-15.0344</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>18000.3</v>
       </c>
@@ -3272,7 +7525,7 @@
         <v>-14.924899999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>18200.400000000001</v>
       </c>
@@ -3280,7 +7533,7 @@
         <v>-15.3864</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>18200.400000000001</v>
       </c>
@@ -3288,7 +7541,7 @@
         <v>-15.127800000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>18200.400000000001</v>
       </c>
@@ -3296,7 +7549,7 @@
         <v>-15.111499999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>18400.3</v>
       </c>
@@ -3304,7 +7557,7 @@
         <v>-15.622199999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>18400.3</v>
       </c>
@@ -3312,7 +7565,7 @@
         <v>-15.3604</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>18400.3</v>
       </c>
@@ -3320,7 +7573,7 @@
         <v>-15.513500000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>18600.3</v>
       </c>
@@ -3328,7 +7581,7 @@
         <v>-15.6204</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>18600.3</v>
       </c>
@@ -3336,7 +7589,7 @@
         <v>-15.8279</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>18600.3</v>
       </c>
@@ -3344,7 +7597,7 @@
         <v>-15.7936</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>18600.3</v>
       </c>
@@ -3352,7 +7605,7 @@
         <v>-15.820499999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>18800.400000000001</v>
       </c>
@@ -3360,7 +7613,7 @@
         <v>-16.076899999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>18800.400000000001</v>
       </c>
@@ -3368,7 +7621,7 @@
         <v>-16.014800000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>18800.400000000001</v>
       </c>
@@ -3376,7 +7629,7 @@
         <v>-16.046700000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>19000.400000000001</v>
       </c>
@@ -3384,7 +7637,7 @@
         <v>-16.1389</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>19000.400000000001</v>
       </c>
@@ -3392,7 +7645,7 @@
         <v>-15.995699999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>19000.400000000001</v>
       </c>
@@ -3400,7 +7653,7 @@
         <v>-16.095600000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>19200.3</v>
       </c>
@@ -3408,7 +7661,7 @@
         <v>-16.400600000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>19200.3</v>
       </c>
@@ -3416,7 +7669,7 @@
         <v>-16.525500000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>19200.3</v>
       </c>
@@ -3424,7 +7677,7 @@
         <v>-16.303999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>19400.3</v>
       </c>
@@ -3432,7 +7685,7 @@
         <v>-16.5107</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>19400.3</v>
       </c>
@@ -3440,7 +7693,7 @@
         <v>-16.688600000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>19400.3</v>
       </c>
@@ -3448,7 +7701,7 @@
         <v>-16.561399999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>19400.3</v>
       </c>
@@ -3456,7 +7709,7 @@
         <v>-16.6357</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>19600.400000000001</v>
       </c>
@@ -3464,7 +7717,7 @@
         <v>-16.755500000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>19600.400000000001</v>
       </c>
@@ -3472,7 +7725,7 @@
         <v>-16.896999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>19600.400000000001</v>
       </c>
@@ -3480,7 +7733,7 @@
         <v>-16.965</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>19800.400000000001</v>
       </c>
@@ -3488,7 +7741,7 @@
         <v>-17.084</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>19800.400000000001</v>
       </c>
@@ -3496,7 +7749,7 @@
         <v>-17.085799999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>19800.400000000001</v>
       </c>
@@ -3504,7 +7757,7 @@
         <v>-17.0838</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>20000.3</v>
       </c>
@@ -3512,7 +7765,7 @@
         <v>-17.4513</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>20000.3</v>
       </c>
@@ -3520,7 +7773,7 @@
         <v>-17.371300000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>20000.3</v>
       </c>
@@ -3528,7 +7781,7 @@
         <v>-17.190999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>20000.3</v>
       </c>
@@ -3536,7 +7789,7 @@
         <v>-17.198799999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>20200.3</v>
       </c>
@@ -3544,7 +7797,7 @@
         <v>-17.3477</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>20200.3</v>
       </c>
@@ -3552,7 +7805,7 @@
         <v>-17.401199999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>20200.3</v>
       </c>
@@ -3560,7 +7813,7 @@
         <v>-17.499600000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>20400.400000000001</v>
       </c>
@@ -3568,7 +7821,7 @@
         <v>-17.5974</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>20400.400000000001</v>
       </c>
@@ -3576,7 +7829,7 @@
         <v>-17.750599999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>20400.400000000001</v>
       </c>
@@ -3584,7 +7837,7 @@
         <v>-17.8443</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>20600.2</v>
       </c>
@@ -3592,7 +7845,7 @@
         <v>-17.759599999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>20600.2</v>
       </c>
@@ -3600,7 +7853,7 @@
         <v>-17.9453</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>20600.2</v>
       </c>
@@ -3608,7 +7861,7 @@
         <v>-17.7592</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>20800.3</v>
       </c>
@@ -3616,7 +7869,7 @@
         <v>-17.964500000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>20800.3</v>
       </c>
@@ -3624,7 +7877,7 @@
         <v>-18.015999999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>20800.3</v>
       </c>
@@ -3632,7 +7885,7 @@
         <v>-17.9466</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>20800.3</v>
       </c>
@@ -3640,7 +7893,7 @@
         <v>-18.139900000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>21000.3</v>
       </c>
@@ -3648,7 +7901,7 @@
         <v>-18.3979</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>21000.3</v>
       </c>
@@ -3656,7 +7909,7 @@
         <v>-18.325500000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>21000.3</v>
       </c>
@@ -3664,7 +7917,7 @@
         <v>-18.4907</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>21200.400000000001</v>
       </c>
@@ -3672,7 +7925,7 @@
         <v>-18.736699999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>21200.400000000001</v>
       </c>
@@ -3680,7 +7933,7 @@
         <v>-18.633099999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>21200.400000000001</v>
       </c>
@@ -3688,7 +7941,7 @@
         <v>-18.695599999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>21400.3</v>
       </c>
@@ -3696,7 +7949,7 @@
         <v>-18.925999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>21400.3</v>
       </c>
@@ -3704,7 +7957,7 @@
         <v>-18.838899999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>21400.3</v>
       </c>
@@ -3712,7 +7965,7 @@
         <v>-18.6144</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>21400.3</v>
       </c>
@@ -3720,7 +7973,7 @@
         <v>-18.805700000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>21600.3</v>
       </c>
@@ -3728,7 +7981,7 @@
         <v>-18.820799999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>21600.3</v>
       </c>
@@ -3736,7 +7989,7 @@
         <v>-19.040800000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>21600.3</v>
       </c>
@@ -3744,7 +7997,7 @@
         <v>-18.819500000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>21800.400000000001</v>
       </c>
@@ -3752,7 +8005,7 @@
         <v>-19.245000000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>21800.400000000001</v>
       </c>
@@ -3760,7 +8013,7 @@
         <v>-19.258299999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>21800.400000000001</v>
       </c>
@@ -3768,7 +8021,7 @@
         <v>-19.045500000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>22000.400000000001</v>
       </c>
@@ -3776,7 +8029,7 @@
         <v>-19.5045</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>22000.400000000001</v>
       </c>
@@ -3784,7 +8037,7 @@
         <v>-19.286000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>22000.400000000001</v>
       </c>
@@ -3792,7 +8045,7 @@
         <v>-19.2288</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>22200.3</v>
       </c>
@@ -3800,7 +8053,7 @@
         <v>-19.417400000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>22200.3</v>
       </c>
@@ -3808,7 +8061,7 @@
         <v>-19.344000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>22200.3</v>
       </c>
@@ -3816,7 +8069,7 @@
         <v>-19.500699999999998</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>22200.3</v>
       </c>
@@ -3824,7 +8077,7 @@
         <v>-19.532399999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>22400.3</v>
       </c>
@@ -3832,7 +8085,7 @@
         <v>-19.769200000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>22400.3</v>
       </c>
@@ -3840,7 +8093,7 @@
         <v>-19.674499999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>22400.3</v>
       </c>
@@ -3848,7 +8101,7 @@
         <v>-19.869299999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>22600.400000000001</v>
       </c>
@@ -3856,7 +8109,7 @@
         <v>-20.051600000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>22600.400000000001</v>
       </c>
@@ -3864,7 +8117,7 @@
         <v>-20.058399999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>22600.400000000001</v>
       </c>
@@ -3872,7 +8125,7 @@
         <v>-20.0976</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>22800.400000000001</v>
       </c>
@@ -3880,7 +8133,7 @@
         <v>-20.118600000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>22800.400000000001</v>
       </c>
@@ -3888,7 +8141,7 @@
         <v>-19.941800000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>22800.400000000001</v>
       </c>
@@ -3896,7 +8149,7 @@
         <v>-20.0809</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>22800.400000000001</v>
       </c>
@@ -3904,7 +8157,7 @@
         <v>-19.955400000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>23000.3</v>
       </c>
@@ -3912,7 +8165,7 @@
         <v>-20.407699999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>23000.3</v>
       </c>
@@ -3920,7 +8173,7 @@
         <v>-20.3065</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>23000.3</v>
       </c>
@@ -3928,7 +8181,7 @@
         <v>-20.128</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>23200.3</v>
       </c>
@@ -3936,7 +8189,7 @@
         <v>-20.467600000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>23200.3</v>
       </c>
@@ -3944,7 +8197,7 @@
         <v>-20.652999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>23200.3</v>
       </c>
@@ -3952,7 +8205,7 @@
         <v>-20.4254</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>23400.400000000001</v>
       </c>
@@ -3960,7 +8213,7 @@
         <v>-20.8462</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>23400.400000000001</v>
       </c>
@@ -3968,7 +8221,7 @@
         <v>-20.491399999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>23400.400000000001</v>
       </c>
@@ -3976,7 +8229,7 @@
         <v>-20.481400000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>23600.400000000001</v>
       </c>
@@ -3984,7 +8237,7 @@
         <v>-20.882400000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>23600.400000000001</v>
       </c>
@@ -3992,7 +8245,7 @@
         <v>-20.6966</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>23600.400000000001</v>
       </c>
@@ -4000,7 +8253,7 @@
         <v>-20.691299999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>23600.400000000001</v>
       </c>
@@ -4008,7 +8261,7 @@
         <v>-20.76</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>23800.3</v>
       </c>
@@ -4016,7 +8269,7 @@
         <v>-20.953399999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>23800.3</v>
       </c>
@@ -4024,7 +8277,7 @@
         <v>-21.184100000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>23800.3</v>
       </c>
@@ -4032,7 +8285,7 @@
         <v>-21.0854</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>24000.3</v>
       </c>
@@ -4040,7 +8293,7 @@
         <v>-21.089200000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>24000.3</v>
       </c>
@@ -4048,7 +8301,7 @@
         <v>-21.303899999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>24000.3</v>
       </c>
@@ -4056,7 +8309,7 @@
         <v>-21.180800000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>24200.400000000001</v>
       </c>
@@ -4064,7 +8317,7 @@
         <v>-21.4237</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>24200.400000000001</v>
       </c>
@@ -4072,7 +8325,7 @@
         <v>-21.294699999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>24200.400000000001</v>
       </c>
@@ -4080,7 +8333,7 @@
         <v>-21.5871</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>24400.400000000001</v>
       </c>
@@ -4088,7 +8341,7 @@
         <v>-21.605</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>24400.400000000001</v>
       </c>
@@ -4096,7 +8349,7 @@
         <v>-21.5244</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>24400.400000000001</v>
       </c>
@@ -4104,7 +8357,7 @@
         <v>-21.598299999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>24400.400000000001</v>
       </c>
@@ -4112,7 +8365,7 @@
         <v>-21.697800000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>24600.3</v>
       </c>
@@ -4120,7 +8373,7 @@
         <v>-21.542899999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>24600.3</v>
       </c>
@@ -4128,7 +8381,7 @@
         <v>-21.774699999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>24600.3</v>
       </c>
@@ -4136,7 +8389,7 @@
         <v>-21.626100000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>24800.3</v>
       </c>
@@ -4144,7 +8397,7 @@
         <v>-21.834800000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>24800.3</v>
       </c>
@@ -4152,7 +8405,7 @@
         <v>-21.812100000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>24800.3</v>
       </c>
@@ -4160,7 +8413,7 @@
         <v>-21.930800000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>25000.400000000001</v>
       </c>
@@ -4168,7 +8421,7 @@
         <v>-22.027100000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>25000.400000000001</v>
       </c>
@@ -4176,7 +8429,7 @@
         <v>-22.109500000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>25000.400000000001</v>
       </c>
@@ -4184,7 +8437,7 @@
         <v>-22.2685</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>25000.400000000001</v>
       </c>
@@ -4192,7 +8445,7 @@
         <v>-22.192499999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>25200.400000000001</v>
       </c>
@@ -4200,7 +8453,7 @@
         <v>-22.184000000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>25200.400000000001</v>
       </c>
@@ -4208,7 +8461,7 @@
         <v>-22.254100000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>25200.400000000001</v>
       </c>
@@ -4216,7 +8469,7 @@
         <v>-22.1401</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>25400.3</v>
       </c>
@@ -4224,7 +8477,7 @@
         <v>-22.5166</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>25400.3</v>
       </c>
@@ -4232,7 +8485,7 @@
         <v>-22.273599999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>25400.3</v>
       </c>
@@ -4240,7 +8493,7 @@
         <v>-22.605899999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>25600.400000000001</v>
       </c>
@@ -4248,7 +8501,7 @@
         <v>-22.4389</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>25600.400000000001</v>
       </c>
@@ -4256,7 +8509,7 @@
         <v>-22.7272</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>25600.400000000001</v>
       </c>
@@ -4264,15 +8517,7 @@
         <v>-22.661999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>25800.3</v>
-      </c>
-      <c r="B422">
-        <v>-50.57</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>25800.400000000001</v>
       </c>
@@ -4280,7 +8525,7 @@
         <v>-22.5185</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>25800.400000000001</v>
       </c>
@@ -4288,7 +8533,7 @@
         <v>-22.574200000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>25800.400000000001</v>
       </c>
@@ -4296,7 +8541,7 @@
         <v>-22.532299999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>26000.5</v>
       </c>
@@ -4304,7 +8549,7 @@
         <v>-22.858599999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>26000.5</v>
       </c>
@@ -4312,7 +8557,7 @@
         <v>-22.976800000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>26000.5</v>
       </c>
@@ -4320,7 +8565,7 @@
         <v>-22.797899999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>26200.3</v>
       </c>
@@ -4328,7 +8573,7 @@
         <v>-23.2653</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>26200.3</v>
       </c>
@@ -4336,7 +8581,7 @@
         <v>-23.244700000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>26200.3</v>
       </c>
@@ -4344,7 +8589,7 @@
         <v>-22.923400000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>26400.400000000001</v>
       </c>
@@ -4352,7 +8597,7 @@
         <v>-23.261199999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>26400.400000000001</v>
       </c>
@@ -4360,7 +8605,7 @@
         <v>-23.258099999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>26400.400000000001</v>
       </c>
@@ -4368,7 +8613,7 @@
         <v>-23.210100000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>26400.400000000001</v>
       </c>
@@ -4376,7 +8621,7 @@
         <v>-22.956099999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>26600.400000000001</v>
       </c>
@@ -4384,7 +8629,7 @@
         <v>-23.269600000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>26600.400000000001</v>
       </c>
@@ -4392,7 +8637,7 @@
         <v>-23.5626</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>26600.400000000001</v>
       </c>
@@ -4400,7 +8645,7 @@
         <v>-23.549499999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>26800.3</v>
       </c>
@@ -4408,7 +8653,7 @@
         <v>-23.66</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>26800.3</v>
       </c>
@@ -4416,7 +8661,7 @@
         <v>-23.7121</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>26800.3</v>
       </c>
@@ -4424,7 +8669,7 @@
         <v>-23.631799999999998</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>27000.3</v>
       </c>
@@ -4432,7 +8677,7 @@
         <v>-23.579000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>27000.3</v>
       </c>
@@ -4440,7 +8685,7 @@
         <v>-23.486999999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>27000.3</v>
       </c>
@@ -4448,7 +8693,7 @@
         <v>-23.533100000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>27200.400000000001</v>
       </c>
@@ -4456,7 +8701,7 @@
         <v>-23.8215</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>27200.400000000001</v>
       </c>
@@ -4464,7 +8709,7 @@
         <v>-23.992899999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>27200.400000000001</v>
       </c>
@@ -4472,7 +8717,7 @@
         <v>-23.788399999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>27200.400000000001</v>
       </c>
@@ -4480,7 +8725,7 @@
         <v>-23.709</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>27400.400000000001</v>
       </c>
@@ -4488,7 +8733,7 @@
         <v>-23.772600000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>27400.400000000001</v>
       </c>
@@ -4496,7 +8741,7 @@
         <v>-23.758900000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>27400.400000000001</v>
       </c>
@@ -4504,7 +8749,7 @@
         <v>-24.142299999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>27600.3</v>
       </c>
@@ -4512,7 +8757,7 @@
         <v>-24.027899999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>27600.3</v>
       </c>
@@ -4520,7 +8765,7 @@
         <v>-24.330500000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>27600.3</v>
       </c>
@@ -4528,7 +8773,7 @@
         <v>-23.883900000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>27800.3</v>
       </c>
@@ -4536,7 +8781,7 @@
         <v>-24.136800000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>27800.3</v>
       </c>
@@ -4544,7 +8789,7 @@
         <v>-24.047899999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>27800.3</v>
       </c>
@@ -4552,7 +8797,7 @@
         <v>-24.287700000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>27800.3</v>
       </c>
@@ -4560,7 +8805,7 @@
         <v>-24.4237</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>28000.400000000001</v>
       </c>
@@ -4568,7 +8813,7 @@
         <v>-24.160799999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>28000.400000000001</v>
       </c>
@@ -4576,7 +8821,7 @@
         <v>-24.481200000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>28000.400000000001</v>
       </c>
@@ -4584,7 +8829,7 @@
         <v>-24.163399999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>28200.400000000001</v>
       </c>
@@ -4592,7 +8837,7 @@
         <v>-24.335999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>28200.400000000001</v>
       </c>
@@ -4600,7 +8845,7 @@
         <v>-24.4617</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>28200.400000000001</v>
       </c>
@@ -4608,7 +8853,7 @@
         <v>-24.5245</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>28400.3</v>
       </c>
@@ -4616,7 +8861,7 @@
         <v>-24.506499999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>28400.3</v>
       </c>
@@ -4624,7 +8869,7 @@
         <v>-24.741399999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>28400.3</v>
       </c>
@@ -4632,7 +8877,7 @@
         <v>-24.582799999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>28600.3</v>
       </c>
@@ -4640,7 +8885,7 @@
         <v>-25.0746</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>28600.400000000001</v>
       </c>
@@ -4648,7 +8893,7 @@
         <v>-25.0319</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>28600.3</v>
       </c>
@@ -4656,7 +8901,7 @@
         <v>-24.743200000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>28600.3</v>
       </c>
@@ -4664,7 +8909,7 @@
         <v>-25.042100000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>28800.400000000001</v>
       </c>
@@ -4672,7 +8917,7 @@
         <v>-24.817399999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>28800.400000000001</v>
       </c>
@@ -4680,7 +8925,7 @@
         <v>-25.011800000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>28800.400000000001</v>
       </c>
@@ -4688,7 +8933,7 @@
         <v>-24.777100000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>29000.400000000001</v>
       </c>
@@ -4696,7 +8941,7 @@
         <v>-24.9558</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>29000.5</v>
       </c>
@@ -4704,7 +8949,7 @@
         <v>-24.957899999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>29000.5</v>
       </c>
@@ -4712,7 +8957,7 @@
         <v>-24.956900000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>29200.3</v>
       </c>
@@ -4720,7 +8965,7 @@
         <v>-25.139600000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>29200.3</v>
       </c>
@@ -4728,7 +8973,7 @@
         <v>-25.422499999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>29200.3</v>
       </c>
@@ -4736,7 +8981,7 @@
         <v>-25.0261</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>29200.3</v>
       </c>
@@ -4744,7 +8989,7 @@
         <v>-25.0654</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>29400.400000000001</v>
       </c>
@@ -4752,7 +8997,7 @@
         <v>-25.6084</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>29400.400000000001</v>
       </c>
@@ -4760,7 +9005,7 @@
         <v>-25.549099999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>29400.400000000001</v>
       </c>
@@ -4768,7 +9013,7 @@
         <v>-25.273199999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>29600.400000000001</v>
       </c>
@@ -4776,7 +9021,7 @@
         <v>-25.508600000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>29600.400000000001</v>
       </c>
@@ -4784,7 +9029,7 @@
         <v>-25.3066</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>29600.400000000001</v>
       </c>
@@ -4792,7 +9037,7 @@
         <v>-25.270399999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>29800.5</v>
       </c>
@@ -4800,7 +9045,7 @@
         <v>-25.55</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>29800.5</v>
       </c>
@@ -4808,7 +9053,7 @@
         <v>-25.639700000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>29800.5</v>
       </c>
@@ -4816,7 +9061,7 @@
         <v>-25.546500000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>30000.3</v>
       </c>
@@ -4824,7 +9069,7 @@
         <v>-25.5977</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>30000.3</v>
       </c>
@@ -4832,7 +9077,7 @@
         <v>-25.949300000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>30000.3</v>
       </c>
@@ -4840,7 +9085,7 @@
         <v>-25.9435</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>30000.3</v>
       </c>
@@ -4848,7 +9093,7 @@
         <v>-25.816800000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>30200.400000000001</v>
       </c>
@@ -4856,7 +9101,7 @@
         <v>-25.857900000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>30200.400000000001</v>
       </c>
@@ -4864,7 +9109,7 @@
         <v>-25.770099999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>30200.400000000001</v>
       </c>
@@ -4872,7 +9117,7 @@
         <v>-25.719000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>30400.400000000001</v>
       </c>
@@ -4880,7 +9125,7 @@
         <v>-25.735399999999998</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>30400.400000000001</v>
       </c>
@@ -4888,7 +9133,7 @@
         <v>-26.139600000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>30400.400000000001</v>
       </c>
@@ -4896,7 +9141,7 @@
         <v>-25.796800000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>30600.5</v>
       </c>
@@ -4904,7 +9149,7 @@
         <v>-26.090900000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>30600.5</v>
       </c>
@@ -4912,7 +9157,7 @@
         <v>-25.929300000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>30600.5</v>
       </c>
@@ -4920,7 +9165,7 @@
         <v>-25.912099999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>30600.5</v>
       </c>
@@ -4928,7 +9173,7 @@
         <v>-26.2014</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>30800.3</v>
       </c>
@@ -4936,7 +9181,7 @@
         <v>-26.2986</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>30800.3</v>
       </c>
@@ -4944,7 +9189,7 @@
         <v>-26.411200000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>30800.3</v>
       </c>
@@ -4952,7 +9197,7 @@
         <v>-26.488199999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>31000.400000000001</v>
       </c>
@@ -4960,7 +9205,7 @@
         <v>-26.380800000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>31000.400000000001</v>
       </c>
@@ -4968,7 +9213,7 @@
         <v>-26.430399999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>31000.400000000001</v>
       </c>
@@ -4976,7 +9221,7 @@
         <v>-26.6252</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>31200.400000000001</v>
       </c>
@@ -4984,7 +9229,7 @@
         <v>-26.295000000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>31200.400000000001</v>
       </c>
@@ -4992,7 +9237,7 @@
         <v>-26.392600000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>31200.400000000001</v>
       </c>
@@ -5000,7 +9245,7 @@
         <v>-26.477499999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>31200.400000000001</v>
       </c>
@@ -5008,7 +9253,7 @@
         <v>-26.414999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>31400.5</v>
       </c>
@@ -5016,7 +9261,7 @@
         <v>-26.774999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>31400.5</v>
       </c>
@@ -5024,7 +9269,7 @@
         <v>-26.689900000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>31400.5</v>
       </c>
@@ -5032,7 +9277,7 @@
         <v>-26.883400000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>31600.3</v>
       </c>
@@ -5040,7 +9285,7 @@
         <v>-26.665099999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>31600.3</v>
       </c>
@@ -5048,7 +9293,7 @@
         <v>-26.8245</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>31600.3</v>
       </c>
@@ -5056,7 +9301,7 @@
         <v>-26.956</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>31800.400000000001</v>
       </c>
@@ -5064,7 +9309,7 @@
         <v>-26.742699999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>31800.400000000001</v>
       </c>
@@ -5072,7 +9317,7 @@
         <v>-26.926500000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>31800.400000000001</v>
       </c>
@@ -5080,7 +9325,7 @@
         <v>-27.1586</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>31800.400000000001</v>
       </c>
@@ -5088,7 +9333,7 @@
         <v>-26.9284</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>32000.5</v>
       </c>
@@ -5096,7 +9341,7 @@
         <v>-26.989000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>32000.400000000001</v>
       </c>
@@ -5104,7 +9349,7 @@
         <v>-26.913900000000002</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>32000.400000000001</v>
       </c>
@@ -5112,7 +9357,7 @@
         <v>-27.178599999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>32200.5</v>
       </c>
@@ -5120,7 +9365,7 @@
         <v>-27.357399999999998</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>32200.5</v>
       </c>
@@ -5128,7 +9373,7 @@
         <v>-27.3673</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>32200.5</v>
       </c>
@@ -5136,7 +9381,7 @@
         <v>-26.962299999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>32400.400000000001</v>
       </c>
@@ -5144,7 +9389,7 @@
         <v>-27.149000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>32400.400000000001</v>
       </c>
@@ -5152,7 +9397,7 @@
         <v>-27.442</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>32400.400000000001</v>
       </c>
@@ -5160,7 +9405,7 @@
         <v>-27.114799999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>32600.400000000001</v>
       </c>
@@ -5168,7 +9413,7 @@
         <v>-27.301500000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>32600.400000000001</v>
       </c>
@@ -5176,7 +9421,7 @@
         <v>-27.168299999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>32600.400000000001</v>
       </c>
@@ -5184,7 +9429,7 @@
         <v>-27.416</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>32600.400000000001</v>
       </c>
@@ -5192,7 +9437,7 @@
         <v>-27.4283</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>32800.5</v>
       </c>
@@ -5200,7 +9445,7 @@
         <v>-27.517299999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>32800.5</v>
       </c>
@@ -5208,7 +9453,7 @@
         <v>-27.3705</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>32800.5</v>
       </c>
@@ -5216,7 +9461,7 @@
         <v>-27.555199999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>33000.300000000003</v>
       </c>
@@ -5224,7 +9469,7 @@
         <v>-27.814900000000002</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>33000.300000000003</v>
       </c>
@@ -5232,7 +9477,7 @@
         <v>-27.449400000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>33000.300000000003</v>
       </c>
@@ -5240,7 +9485,7 @@
         <v>-27.733699999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>33200.400000000001</v>
       </c>
@@ -5248,7 +9493,7 @@
         <v>-27.912500000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>33200.400000000001</v>
       </c>
@@ -5256,7 +9501,7 @@
         <v>-27.791599999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>33200.400000000001</v>
       </c>
@@ -5264,7 +9509,7 @@
         <v>-27.592500000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>33200.400000000001</v>
       </c>
@@ -5272,7 +9517,7 @@
         <v>-27.500599999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>33400.400000000001</v>
       </c>
@@ -5280,7 +9525,7 @@
         <v>-27.760100000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>33400.400000000001</v>
       </c>
@@ -5288,7 +9533,7 @@
         <v>-27.473800000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>33400.400000000001</v>
       </c>
@@ -5296,7 +9541,7 @@
         <v>-27.760400000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>33600.5</v>
       </c>
@@ -5304,7 +9549,7 @@
         <v>-27.951000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>33600.5</v>
       </c>
@@ -5312,7 +9557,7 @@
         <v>-28.176200000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>33600.5</v>
       </c>
@@ -5320,7 +9565,7 @@
         <v>-27.9087</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>33800.300000000003</v>
       </c>
@@ -5328,7 +9573,7 @@
         <v>-27.937100000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>33800.300000000003</v>
       </c>
@@ -5336,7 +9581,7 @@
         <v>-28.0367</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>33800.300000000003</v>
       </c>
@@ -5344,7 +9589,7 @@
         <v>-28.2011</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>34000.400000000001</v>
       </c>
@@ -5352,7 +9597,7 @@
         <v>-28.002800000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>34000.400000000001</v>
       </c>
@@ -5360,7 +9605,7 @@
         <v>-28.331800000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>34000.400000000001</v>
       </c>
@@ -5368,7 +9613,7 @@
         <v>-27.895299999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>34000.400000000001</v>
       </c>
@@ -5376,7 +9621,7 @@
         <v>-28.053100000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>34200.400000000001</v>
       </c>
@@ -5384,7 +9629,7 @@
         <v>-28.097200000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>34200.400000000001</v>
       </c>
@@ -5392,7 +9637,7 @@
         <v>-27.969799999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>34200.400000000001</v>
       </c>
@@ -5400,7 +9645,7 @@
         <v>-28.148900000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>34400.5</v>
       </c>
@@ -5408,7 +9653,7 @@
         <v>-28.394400000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>34400.5</v>
       </c>
@@ -5416,7 +9661,7 @@
         <v>-28.072399999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>34400.5</v>
       </c>
@@ -5424,7 +9669,7 @@
         <v>-28.480499999999999</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>34600.300000000003</v>
       </c>
@@ -5432,7 +9677,7 @@
         <v>-28.2852</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>34600.300000000003</v>
       </c>
@@ -5440,7 +9685,7 @@
         <v>-28.615500000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>34600.300000000003</v>
       </c>
@@ -5448,7 +9693,7 @@
         <v>-28.264099999999999</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>34600.300000000003</v>
       </c>
@@ -5456,7 +9701,7 @@
         <v>-28.193200000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>34800.400000000001</v>
       </c>
@@ -5464,7 +9709,7 @@
         <v>-28.5091</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>34800.400000000001</v>
       </c>
@@ -5472,7 +9717,7 @@
         <v>-28.312200000000001</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>34800.400000000001</v>
       </c>
@@ -5482,5 +9727,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>